--- a/data/trans_orig/P42A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C56D747-6770-4E65-A693-1A0B41A65427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{254DDB75-3BC1-4BCE-8668-DC1EBB8C96E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DB2A8DA-F805-43DA-860E-F5E182AD4FA3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B8A98E5-DD89-481A-97DB-4272B5DFD1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="252">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -80,715 +80,721 @@
     <t>22,74%</t>
   </si>
   <si>
-    <t>18,41%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>Hace 3 o más años</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>Entre 1 y 3 años</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>Hace 3 o más años</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>Entre 1 y 3 años</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
+    <t>25,44%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BF0858-FA63-434F-8E45-9447FB6328DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E135E8-1F7C-4D4F-893F-41998A4891C7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1636,10 +1642,10 @@
         <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -1651,10 +1657,10 @@
         <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1688,13 @@
         <v>100460</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -1697,13 +1703,13 @@
         <v>100460</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,13 +1737,13 @@
         <v>118273</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M12" s="7">
         <v>115</v>
@@ -1746,13 +1752,13 @@
         <v>118273</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1786,13 @@
         <v>105160</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -1795,13 +1801,13 @@
         <v>105160</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1835,13 @@
         <v>91708</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -1844,13 +1850,13 @@
         <v>91708</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,7 +1910,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1929,13 +1935,13 @@
         <v>37521</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -1944,13 +1950,13 @@
         <v>37521</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1984,13 @@
         <v>28480</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -1993,13 +1999,13 @@
         <v>28480</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2033,13 @@
         <v>43097</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -2042,13 +2048,13 @@
         <v>43097</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2082,13 @@
         <v>33689</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -2091,13 +2097,13 @@
         <v>33689</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2131,13 @@
         <v>28687</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -2140,13 +2146,13 @@
         <v>28687</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2231,13 @@
         <v>243533</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>235</v>
@@ -2240,13 +2246,13 @@
         <v>243533</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,13 +2280,13 @@
         <v>204651</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -2289,13 +2295,13 @@
         <v>204651</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2329,13 @@
         <v>252904</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M24" s="7">
         <v>248</v>
@@ -2338,13 +2344,13 @@
         <v>252904</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,13 +2378,13 @@
         <v>213973</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M25" s="7">
         <v>209</v>
@@ -2387,13 +2393,13 @@
         <v>213973</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2427,13 @@
         <v>174055</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -2436,13 +2442,13 @@
         <v>174055</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2502,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C7D3A3-5795-4F08-B245-0835D36FE53D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5342BF47-177F-4B2A-8370-B4F314C4480E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2532,7 +2538,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2652,13 +2658,13 @@
         <v>160935</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
@@ -2667,13 +2673,13 @@
         <v>160935</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,10 +2759,10 @@
         <v>85</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" s="7">
         <v>261</v>
@@ -2768,10 +2774,10 @@
         <v>85</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2805,13 @@
         <v>169590</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -2814,13 +2820,13 @@
         <v>169590</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +3009,7 @@
         <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="M11" s="7">
         <v>204</v>
@@ -3018,7 +3024,7 @@
         <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3052,13 @@
         <v>490698</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M12" s="7">
         <v>451</v>
@@ -3061,13 +3067,13 @@
         <v>490698</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3101,13 @@
         <v>363249</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>334</v>
@@ -3110,13 +3116,13 @@
         <v>363249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3150,13 @@
         <v>292195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>269</v>
@@ -3159,13 +3165,13 @@
         <v>292195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,7 +3225,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3244,13 +3250,13 @@
         <v>14772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3259,13 +3265,13 @@
         <v>14772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3299,13 @@
         <v>41016</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -3308,13 +3314,13 @@
         <v>41016</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,10 +3397,10 @@
         <v>123354</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>117</v>
@@ -3406,10 +3412,10 @@
         <v>123354</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>117</v>
@@ -3589,13 +3595,13 @@
         <v>675022</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>625</v>
@@ -3604,13 +3610,13 @@
         <v>675022</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3644,13 @@
         <v>913943</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>842</v>
@@ -3653,13 +3659,13 @@
         <v>913943</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3693,13 @@
         <v>656193</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>601</v>
@@ -3702,13 +3708,13 @@
         <v>656193</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3742,13 @@
         <v>503832</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>464</v>
@@ -3751,13 +3757,13 @@
         <v>503832</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3817,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3830,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E0E7B-A7CE-4213-A933-DD0383BAD629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53CBF3C-9696-4703-9142-F021A8AB213E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3847,7 +3853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3967,13 +3973,13 @@
         <v>122358</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>108</v>
@@ -3982,13 +3988,13 @@
         <v>122358</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4022,13 @@
         <v>337088</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>293</v>
@@ -4031,13 +4037,13 @@
         <v>337088</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4071,13 @@
         <v>229595</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>215</v>
@@ -4080,13 +4086,13 @@
         <v>229595</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4120,13 @@
         <v>82433</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4129,13 +4135,13 @@
         <v>82433</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4169,13 @@
         <v>54712</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -4178,13 +4184,13 @@
         <v>54712</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,10 +4419,10 @@
         <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>320</v>
@@ -4428,10 +4434,10 @@
         <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4465,13 @@
         <v>244220</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -4474,13 +4480,13 @@
         <v>244220</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4540,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4559,13 +4565,13 @@
         <v>19093</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4574,13 +4580,13 @@
         <v>19093</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4614,13 @@
         <v>60414</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -4623,13 +4629,13 @@
         <v>60414</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4663,13 @@
         <v>180233</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M18" s="7">
         <v>174</v>
@@ -4672,13 +4678,13 @@
         <v>180233</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4712,13 @@
         <v>151313</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -4721,13 +4727,13 @@
         <v>151313</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4761,13 @@
         <v>92943</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -4770,13 +4776,13 @@
         <v>92943</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4861,13 @@
         <v>251902</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -4870,13 +4876,13 @@
         <v>251902</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4910,13 @@
         <v>741474</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>665</v>
@@ -4919,13 +4925,13 @@
         <v>741474</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4959,13 @@
         <v>1103245</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M24" s="7">
         <v>1058</v>
@@ -4968,13 +4974,13 @@
         <v>1103245</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5008,13 @@
         <v>562675</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M25" s="7">
         <v>544</v>
@@ -5017,13 +5023,13 @@
         <v>562675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5057,13 @@
         <v>391874</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>375</v>
@@ -5066,13 +5072,13 @@
         <v>391874</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5132,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5145,7 +5151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E28603D-3E36-4031-8E62-B0F34D470921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0729E3EF-6A08-45CE-9B94-F390ECB49E60}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5731,7 +5737,7 @@
         <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
@@ -5746,7 +5752,7 @@
         <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5780,13 @@
         <v>176444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>240</v>
@@ -5789,13 +5795,13 @@
         <v>176444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,7 +5826,7 @@
         <v>1871</v>
       </c>
       <c r="I15" s="7">
-        <v>1310228</v>
+        <v>1310227</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -5835,7 +5841,7 @@
         <v>1871</v>
       </c>
       <c r="N15" s="7">
-        <v>1310228</v>
+        <v>1310227</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -5849,7 +5855,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5874,13 +5880,13 @@
         <v>7466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5889,13 +5895,13 @@
         <v>7466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,13 +5929,13 @@
         <v>81696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -5938,13 +5944,13 @@
         <v>81696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,7 +5978,7 @@
         <v>142294</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>231</v>
@@ -5987,7 +5993,7 @@
         <v>142294</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>231</v>
@@ -6073,10 +6079,10 @@
         <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -6088,10 +6094,10 @@
         <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6176,13 @@
         <v>212574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>320</v>
@@ -6185,13 +6191,13 @@
         <v>212574</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6225,13 @@
         <v>756250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M23" s="7">
         <v>1228</v>
@@ -6234,13 +6240,13 @@
         <v>756250</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6274,13 @@
         <v>631651</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="M24" s="7">
         <v>930</v>
@@ -6283,13 +6289,13 @@
         <v>631651</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6323,13 @@
         <v>439924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>631</v>
@@ -6332,13 +6338,13 @@
         <v>439924</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6372,13 @@
         <v>283468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>389</v>
@@ -6381,13 +6387,13 @@
         <v>283468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,7 +6447,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{254DDB75-3BC1-4BCE-8668-DC1EBB8C96E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{450F6437-B4C7-42D0-A3D6-A290B80ED401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B8A98E5-DD89-481A-97DB-4272B5DFD1C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35EF5A8F-B837-4821-AA5E-95D3A235A44E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="255">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>22,74%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -92,10 +92,10 @@
     <t>19,76%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -104,10 +104,10 @@
     <t>23,89%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -116,10 +116,10 @@
     <t>19,61%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -128,10 +128,10 @@
     <t>14,0%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,43 +143,43 @@
     <t>22,24%</t>
   </si>
   <si>
-    <t>25,85%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>25,99%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,595 +188,604 @@
     <t>21,88%</t>
   </si>
   <si>
-    <t>15,75%</t>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>28,89%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
   </si>
   <si>
     <t>18,93%</t>
@@ -1206,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E135E8-1F7C-4D4F-893F-41998A4891C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FB598A-4C63-46CA-963B-5B14DD797341}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1642,10 +1651,10 @@
         <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -1657,10 +1666,10 @@
         <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,13 +1697,13 @@
         <v>100460</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -1703,13 +1712,13 @@
         <v>100460</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,10 +1746,10 @@
         <v>118273</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>40</v>
@@ -1752,10 +1761,10 @@
         <v>118273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>40</v>
@@ -2085,10 +2094,10 @@
         <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -2100,10 +2109,10 @@
         <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2140,13 @@
         <v>28687</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -2146,13 +2155,13 @@
         <v>28687</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2240,13 @@
         <v>243533</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>235</v>
@@ -2246,13 +2255,13 @@
         <v>243533</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2289,13 @@
         <v>204651</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -2295,13 +2304,13 @@
         <v>204651</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2338,13 @@
         <v>252904</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M24" s="7">
         <v>248</v>
@@ -2344,13 +2353,13 @@
         <v>252904</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,10 +2390,10 @@
         <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>209</v>
@@ -2396,10 +2405,10 @@
         <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2436,13 @@
         <v>174055</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -2442,13 +2451,13 @@
         <v>174055</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2511,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5342BF47-177F-4B2A-8370-B4F314C4480E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF437C73-3EA3-4746-9600-F0717BDFF096}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2538,7 +2547,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2658,13 +2667,13 @@
         <v>160935</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
@@ -2673,13 +2682,13 @@
         <v>160935</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2716,13 @@
         <v>412947</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M5" s="7">
         <v>386</v>
@@ -2722,13 +2731,13 @@
         <v>412947</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2765,13 @@
         <v>278470</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M6" s="7">
         <v>261</v>
@@ -2771,13 +2780,13 @@
         <v>278470</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2814,13 @@
         <v>169590</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -2820,13 +2829,13 @@
         <v>169590</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,7 +3314,7 @@
         <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -3320,7 +3329,7 @@
         <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3357,13 @@
         <v>144776</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>130</v>
@@ -3363,13 +3372,13 @@
         <v>144776</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3406,13 @@
         <v>123354</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -3412,13 +3421,13 @@
         <v>123354</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3455,13 @@
         <v>97427</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -3461,13 +3470,13 @@
         <v>97427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3555,13 @@
         <v>330198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -3561,13 +3570,13 @@
         <v>330198</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3604,13 @@
         <v>675022</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>625</v>
@@ -3610,13 +3619,13 @@
         <v>675022</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3653,13 @@
         <v>913943</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>842</v>
@@ -3659,13 +3668,13 @@
         <v>913943</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3702,13 @@
         <v>656193</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>601</v>
@@ -3708,13 +3717,13 @@
         <v>656193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3751,13 @@
         <v>503832</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>464</v>
@@ -3757,13 +3766,13 @@
         <v>503832</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3826,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3836,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53CBF3C-9696-4703-9142-F021A8AB213E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58646ABD-0C7A-4EA7-8E83-190F72958B91}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3853,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3973,13 +3982,13 @@
         <v>122358</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>108</v>
@@ -3988,13 +3997,13 @@
         <v>122358</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4031,13 @@
         <v>337088</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>293</v>
@@ -4037,13 +4046,13 @@
         <v>337088</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4080,13 @@
         <v>229595</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>215</v>
@@ -4086,13 +4095,13 @@
         <v>229595</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4129,13 @@
         <v>82433</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4135,13 +4144,13 @@
         <v>82433</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4178,13 @@
         <v>54712</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -4184,13 +4193,13 @@
         <v>54712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4278,13 @@
         <v>110450</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -4284,13 +4293,13 @@
         <v>110450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4327,13 @@
         <v>343972</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>317</v>
@@ -4333,13 +4342,13 @@
         <v>343972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4376,13 @@
         <v>693417</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M12" s="7">
         <v>669</v>
@@ -4382,13 +4391,13 @@
         <v>693417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4425,13 @@
         <v>328929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>320</v>
@@ -4431,13 +4440,13 @@
         <v>328929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4474,13 @@
         <v>244220</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -4480,13 +4489,13 @@
         <v>244220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4574,13 @@
         <v>19093</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4580,13 +4589,13 @@
         <v>19093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4623,13 @@
         <v>60414</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -4629,13 +4638,13 @@
         <v>60414</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4672,13 @@
         <v>180233</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>174</v>
@@ -4678,13 +4687,13 @@
         <v>180233</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4721,13 @@
         <v>151313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -4727,13 +4736,13 @@
         <v>151313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4770,13 @@
         <v>92943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -4776,13 +4785,13 @@
         <v>92943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4870,13 @@
         <v>251902</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -4876,13 +4885,13 @@
         <v>251902</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4919,13 @@
         <v>741474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M23" s="7">
         <v>665</v>
@@ -4925,13 +4934,13 @@
         <v>741474</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4968,13 @@
         <v>1103245</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M24" s="7">
         <v>1058</v>
@@ -4974,13 +4983,13 @@
         <v>1103245</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5017,13 @@
         <v>562675</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M25" s="7">
         <v>544</v>
@@ -5023,13 +5032,13 @@
         <v>562675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5066,13 @@
         <v>391874</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M26" s="7">
         <v>375</v>
@@ -5072,13 +5081,13 @@
         <v>391874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5141,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5151,7 +5160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0729E3EF-6A08-45CE-9B94-F390ECB49E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B2BF66-5FAC-40F1-B8CE-6F010D41A157}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5168,7 +5177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5288,13 +5297,13 @@
         <v>90674</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>158</v>
@@ -5303,13 +5312,13 @@
         <v>90674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5346,13 @@
         <v>293229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>528</v>
@@ -5352,13 +5361,13 @@
         <v>293229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5395,13 @@
         <v>106726</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M6" s="7">
         <v>168</v>
@@ -5401,13 +5410,13 @@
         <v>106726</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5444,13 @@
         <v>58637</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -5450,13 +5459,13 @@
         <v>58637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5493,13 @@
         <v>24725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5499,13 +5508,13 @@
         <v>24725</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5593,13 @@
         <v>114434</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -5599,13 +5608,13 @@
         <v>114434</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5642,13 @@
         <v>381324</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -5648,13 +5657,13 @@
         <v>381324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5691,13 @@
         <v>382630</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>555</v>
@@ -5697,13 +5706,13 @@
         <v>382630</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5740,13 @@
         <v>255395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
@@ -5746,13 +5755,13 @@
         <v>255395</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5789,13 @@
         <v>176444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>240</v>
@@ -5795,13 +5804,13 @@
         <v>176444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5889,13 @@
         <v>7466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5895,13 +5904,13 @@
         <v>7466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5938,13 @@
         <v>81696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -5944,13 +5953,13 @@
         <v>81696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5987,13 @@
         <v>142294</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M18" s="7">
         <v>207</v>
@@ -5993,13 +6002,13 @@
         <v>142294</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6036,13 @@
         <v>125892</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
@@ -6042,13 +6051,13 @@
         <v>125892</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6085,13 @@
         <v>82299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -6091,13 +6100,13 @@
         <v>82299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6185,13 @@
         <v>212574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M22" s="7">
         <v>320</v>
@@ -6191,13 +6200,13 @@
         <v>212574</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6234,13 @@
         <v>756250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M23" s="7">
         <v>1228</v>
@@ -6240,13 +6249,13 @@
         <v>756250</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6283,13 @@
         <v>631651</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="M24" s="7">
         <v>930</v>
@@ -6289,13 +6298,13 @@
         <v>631651</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6332,13 @@
         <v>439924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M25" s="7">
         <v>631</v>
@@ -6338,13 +6347,13 @@
         <v>439924</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6381,13 @@
         <v>283468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M26" s="7">
         <v>389</v>
@@ -6387,13 +6396,13 @@
         <v>283468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,7 +6456,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{450F6437-B4C7-42D0-A3D6-A290B80ED401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FDB788-492C-4DBF-ABF4-5E28C7E7221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35EF5A8F-B837-4821-AA5E-95D3A235A44E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F480713B-1931-41C6-A1B6-9317A87D374E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="250">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>22,74%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -92,10 +92,10 @@
     <t>19,76%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -104,10 +104,10 @@
     <t>23,89%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -116,10 +116,10 @@
     <t>19,61%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -128,10 +128,10 @@
     <t>14,0%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,43 +143,46 @@
     <t>22,24%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>25,99%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,10 +191,10 @@
     <t>21,88%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>16,61%</t>
@@ -200,73 +203,76 @@
     <t>11,68%</t>
   </si>
   <si>
-    <t>22,55%</t>
+    <t>22,35%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>26,71%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>23,22%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -278,532 +284,511 @@
     <t>14,16%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>12,25%</t>
   </si>
   <si>
     <t>36,35%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FB598A-4C63-46CA-963B-5B14DD797341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838C6208-33BA-4AD4-9B9D-263EFD28BF02}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1749,10 +1734,10 @@
         <v>39</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M12" s="7">
         <v>115</v>
@@ -1764,10 +1749,10 @@
         <v>39</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,13 +1780,13 @@
         <v>105160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -1810,13 +1795,13 @@
         <v>105160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,13 +1829,13 @@
         <v>91708</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -1859,13 +1844,13 @@
         <v>91708</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,7 +1904,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1944,13 +1929,13 @@
         <v>37521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -1959,13 +1944,13 @@
         <v>37521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1978,13 @@
         <v>28480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -2008,13 +1993,13 @@
         <v>28480</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2027,13 @@
         <v>43097</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -2057,13 +2042,13 @@
         <v>43097</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2076,13 @@
         <v>33689</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -2106,13 +2091,13 @@
         <v>33689</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2125,13 @@
         <v>28687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -2155,13 +2140,13 @@
         <v>28687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2225,13 @@
         <v>243533</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>235</v>
@@ -2255,13 +2240,13 @@
         <v>243533</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2274,13 @@
         <v>204651</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -2304,13 +2289,13 @@
         <v>204651</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2323,13 @@
         <v>252904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M24" s="7">
         <v>248</v>
@@ -2353,13 +2338,13 @@
         <v>252904</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2372,13 @@
         <v>213973</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M25" s="7">
         <v>209</v>
@@ -2402,13 +2387,13 @@
         <v>213973</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2421,13 @@
         <v>174055</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -2451,13 +2436,13 @@
         <v>174055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2496,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF437C73-3EA3-4746-9600-F0717BDFF096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0BB146-7E21-4153-8F2F-4B1A94A50DA7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2547,7 +2532,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2667,13 +2652,13 @@
         <v>160935</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
@@ -2682,13 +2667,13 @@
         <v>160935</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2701,13 @@
         <v>412947</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" s="7">
         <v>386</v>
@@ -2731,13 +2716,13 @@
         <v>412947</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,10 +2750,10 @@
         <v>278470</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>86</v>
@@ -2780,10 +2765,10 @@
         <v>278470</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>86</v>
@@ -3018,7 +3003,7 @@
         <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>204</v>
@@ -3033,7 +3018,7 @@
         <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3046,13 @@
         <v>490698</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M12" s="7">
         <v>451</v>
@@ -3076,13 +3061,13 @@
         <v>490698</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3095,13 @@
         <v>363249</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>334</v>
@@ -3125,13 +3110,13 @@
         <v>363249</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3144,13 @@
         <v>292195</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>269</v>
@@ -3174,13 +3159,13 @@
         <v>292195</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3219,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3259,13 +3244,13 @@
         <v>14772</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3274,13 +3259,13 @@
         <v>14772</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3293,13 @@
         <v>41016</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -3323,13 +3308,13 @@
         <v>41016</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3342,13 @@
         <v>144776</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>130</v>
@@ -3372,13 +3357,13 @@
         <v>144776</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3391,13 @@
         <v>123354</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -3421,13 +3406,13 @@
         <v>123354</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3440,13 @@
         <v>97427</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -3470,13 +3455,13 @@
         <v>97427</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3540,13 @@
         <v>330198</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -3570,13 +3555,13 @@
         <v>330198</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3589,13 @@
         <v>675022</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>625</v>
@@ -3619,13 +3604,13 @@
         <v>675022</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3638,13 @@
         <v>913943</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>842</v>
@@ -3668,13 +3653,13 @@
         <v>913943</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3687,13 @@
         <v>656193</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>601</v>
@@ -3717,13 +3702,13 @@
         <v>656193</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3736,13 @@
         <v>503832</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>464</v>
@@ -3766,13 +3751,13 @@
         <v>503832</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3811,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3845,7 +3830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58646ABD-0C7A-4EA7-8E83-190F72958B91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6D0D9-F32C-4DC0-8624-5D1AD76EB198}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3982,13 +3967,13 @@
         <v>122358</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>108</v>
@@ -3997,13 +3982,13 @@
         <v>122358</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4016,13 @@
         <v>337088</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>293</v>
@@ -4046,13 +4031,13 @@
         <v>337088</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4065,13 @@
         <v>229595</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>215</v>
@@ -4095,13 +4080,13 @@
         <v>229595</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4114,13 @@
         <v>82433</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4144,13 +4129,13 @@
         <v>82433</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4163,13 @@
         <v>54712</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -4193,13 +4178,13 @@
         <v>54712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4263,13 @@
         <v>110450</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -4293,13 +4278,13 @@
         <v>110450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4312,13 @@
         <v>343972</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>317</v>
@@ -4342,13 +4327,13 @@
         <v>343972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4361,13 @@
         <v>693417</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M12" s="7">
         <v>669</v>
@@ -4391,13 +4376,13 @@
         <v>693417</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4410,13 @@
         <v>328929</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>320</v>
@@ -4440,13 +4425,13 @@
         <v>328929</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4459,13 @@
         <v>244220</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -4489,13 +4474,13 @@
         <v>244220</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,7 +4534,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4574,13 +4559,13 @@
         <v>19093</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -4589,13 +4574,13 @@
         <v>19093</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4608,13 @@
         <v>60414</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -4638,13 +4623,13 @@
         <v>60414</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4657,13 @@
         <v>180233</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>174</v>
@@ -4687,13 +4672,13 @@
         <v>180233</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4706,13 @@
         <v>151313</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -4736,13 +4721,13 @@
         <v>151313</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4755,13 @@
         <v>92943</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -4785,13 +4770,13 @@
         <v>92943</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4855,13 @@
         <v>251902</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -4885,13 +4870,13 @@
         <v>251902</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4904,13 @@
         <v>741474</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M23" s="7">
         <v>665</v>
@@ -4934,13 +4919,13 @@
         <v>741474</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4953,13 @@
         <v>1103245</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M24" s="7">
         <v>1058</v>
@@ -4983,13 +4968,13 @@
         <v>1103245</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5002,13 @@
         <v>562675</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M25" s="7">
         <v>544</v>
@@ -5032,13 +5017,13 @@
         <v>562675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5051,13 @@
         <v>391874</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>375</v>
@@ -5081,13 +5066,13 @@
         <v>391874</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5126,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5160,7 +5145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B2BF66-5FAC-40F1-B8CE-6F010D41A157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BED3A9-011B-4B53-A57D-EC5E47EDDFD2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5177,7 +5162,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5297,13 +5282,13 @@
         <v>90674</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>158</v>
@@ -5312,13 +5297,13 @@
         <v>90674</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5331,13 @@
         <v>293229</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>528</v>
@@ -5361,13 +5346,13 @@
         <v>293229</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5380,13 @@
         <v>106726</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M6" s="7">
         <v>168</v>
@@ -5410,13 +5395,13 @@
         <v>106726</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5429,13 @@
         <v>58637</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -5459,13 +5444,13 @@
         <v>58637</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5478,13 @@
         <v>24725</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5508,13 +5493,13 @@
         <v>24725</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,13 +5578,13 @@
         <v>114434</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -5608,13 +5593,13 @@
         <v>114434</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5627,13 @@
         <v>381324</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -5657,13 +5642,13 @@
         <v>381324</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5676,13 @@
         <v>382630</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>555</v>
@@ -5706,13 +5691,13 @@
         <v>382630</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5725,13 @@
         <v>255395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
@@ -5755,13 +5740,13 @@
         <v>255395</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5774,13 @@
         <v>176444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>240</v>
@@ -5804,13 +5789,13 @@
         <v>176444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,7 +5820,7 @@
         <v>1871</v>
       </c>
       <c r="I15" s="7">
-        <v>1310227</v>
+        <v>1310228</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -5850,7 +5835,7 @@
         <v>1871</v>
       </c>
       <c r="N15" s="7">
-        <v>1310227</v>
+        <v>1310228</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -5864,7 +5849,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5889,13 +5874,13 @@
         <v>7466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5904,13 +5889,13 @@
         <v>7466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5923,13 @@
         <v>81696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -5953,13 +5938,13 @@
         <v>81696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5972,13 @@
         <v>142294</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M18" s="7">
         <v>207</v>
@@ -6002,13 +5987,13 @@
         <v>142294</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6021,13 @@
         <v>125892</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
@@ -6051,13 +6036,13 @@
         <v>125892</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6070,13 @@
         <v>82299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -6100,13 +6085,13 @@
         <v>82299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6170,13 @@
         <v>212574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>320</v>
@@ -6200,13 +6185,13 @@
         <v>212574</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6219,13 @@
         <v>756250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M23" s="7">
         <v>1228</v>
@@ -6249,13 +6234,13 @@
         <v>756250</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6268,13 @@
         <v>631651</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M24" s="7">
         <v>930</v>
@@ -6298,13 +6283,13 @@
         <v>631651</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6317,13 @@
         <v>439924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M25" s="7">
         <v>631</v>
@@ -6347,13 +6332,13 @@
         <v>439924</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6366,13 @@
         <v>283468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>389</v>
@@ -6396,13 +6381,13 @@
         <v>283468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,7 +6441,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FDB788-492C-4DBF-ABF4-5E28C7E7221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FBF037D-A1DA-48FD-A4B6-54EABE47DDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F480713B-1931-41C6-A1B6-9317A87D374E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{69BD3494-835F-4228-8CC8-0AFD3C7F4ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="252">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -626,169 +626,175 @@
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838C6208-33BA-4AD4-9B9D-263EFD28BF02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1D0653-AEC8-40D2-9BA4-2B5768989B39}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2515,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0BB146-7E21-4153-8F2F-4B1A94A50DA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726D0353-F0F5-4D87-B0AB-C9B5FF57AABD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3830,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6D0D9-F32C-4DC0-8624-5D1AD76EB198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF62468C-36BA-4853-B420-692929493858}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5145,7 +5151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BED3A9-011B-4B53-A57D-EC5E47EDDFD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88376114-C30B-45B5-9EB2-B63B7EE7969D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5279,31 +5285,31 @@
         <v>158</v>
       </c>
       <c r="I4" s="7">
-        <v>90674</v>
+        <v>82132</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>158</v>
       </c>
       <c r="N4" s="7">
-        <v>90674</v>
+        <v>82132</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,31 +5334,31 @@
         <v>528</v>
       </c>
       <c r="I5" s="7">
-        <v>293229</v>
+        <v>265352</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>528</v>
       </c>
       <c r="N5" s="7">
-        <v>293229</v>
+        <v>265352</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,31 +5383,31 @@
         <v>168</v>
       </c>
       <c r="I6" s="7">
-        <v>106726</v>
+        <v>94537</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>168</v>
       </c>
       <c r="N6" s="7">
-        <v>106726</v>
+        <v>94537</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,31 +5432,31 @@
         <v>89</v>
       </c>
       <c r="I7" s="7">
-        <v>58637</v>
+        <v>51137</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
       </c>
       <c r="N7" s="7">
-        <v>58637</v>
+        <v>51137</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,31 +5481,31 @@
         <v>40</v>
       </c>
       <c r="I8" s="7">
-        <v>24725</v>
+        <v>22844</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>24725</v>
+        <v>22844</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,7 +5530,7 @@
         <v>983</v>
       </c>
       <c r="I9" s="7">
-        <v>573991</v>
+        <v>516002</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>31</v>
@@ -5539,7 +5545,7 @@
         <v>983</v>
       </c>
       <c r="N9" s="7">
-        <v>573991</v>
+        <v>516002</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>31</v>
@@ -5575,31 +5581,31 @@
         <v>150</v>
       </c>
       <c r="I10" s="7">
-        <v>114434</v>
+        <v>103110</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
       </c>
       <c r="N10" s="7">
-        <v>114434</v>
+        <v>103110</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,31 +5630,31 @@
         <v>570</v>
       </c>
       <c r="I11" s="7">
-        <v>381324</v>
+        <v>432039</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
       </c>
       <c r="N11" s="7">
-        <v>381324</v>
+        <v>432039</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,31 +5679,31 @@
         <v>555</v>
       </c>
       <c r="I12" s="7">
-        <v>382630</v>
+        <v>350607</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>555</v>
       </c>
       <c r="N12" s="7">
-        <v>382630</v>
+        <v>350607</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,31 +5728,31 @@
         <v>356</v>
       </c>
       <c r="I13" s="7">
-        <v>255395</v>
+        <v>231685</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
       </c>
       <c r="N13" s="7">
-        <v>255395</v>
+        <v>231685</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,7 +5777,7 @@
         <v>240</v>
       </c>
       <c r="I14" s="7">
-        <v>176444</v>
+        <v>164318</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>221</v>
@@ -5786,7 +5792,7 @@
         <v>240</v>
       </c>
       <c r="N14" s="7">
-        <v>176444</v>
+        <v>164318</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>221</v>
@@ -5820,7 +5826,7 @@
         <v>1871</v>
       </c>
       <c r="I15" s="7">
-        <v>1310228</v>
+        <v>1281760</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -5835,7 +5841,7 @@
         <v>1871</v>
       </c>
       <c r="N15" s="7">
-        <v>1310228</v>
+        <v>1281760</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -5871,7 +5877,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>7466</v>
+        <v>7051</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>224</v>
@@ -5880,13 +5886,13 @@
         <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>7466</v>
+        <v>7051</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>224</v>
@@ -5895,7 +5901,7 @@
         <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,31 +5926,31 @@
         <v>130</v>
       </c>
       <c r="I17" s="7">
-        <v>81696</v>
+        <v>75814</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
       </c>
       <c r="N17" s="7">
-        <v>81696</v>
+        <v>75814</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,31 +5975,31 @@
         <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>142294</v>
+        <v>132809</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M18" s="7">
         <v>207</v>
       </c>
       <c r="N18" s="7">
-        <v>142294</v>
+        <v>132809</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,31 +6024,31 @@
         <v>186</v>
       </c>
       <c r="I19" s="7">
-        <v>125892</v>
+        <v>115548</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
       </c>
       <c r="N19" s="7">
-        <v>125892</v>
+        <v>115548</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,31 +6073,31 @@
         <v>109</v>
       </c>
       <c r="I20" s="7">
-        <v>82299</v>
+        <v>77192</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
       </c>
       <c r="N20" s="7">
-        <v>82299</v>
+        <v>77192</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,7 +6122,7 @@
         <v>644</v>
       </c>
       <c r="I21" s="7">
-        <v>439648</v>
+        <v>408414</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>31</v>
@@ -6131,7 +6137,7 @@
         <v>644</v>
       </c>
       <c r="N21" s="7">
-        <v>439648</v>
+        <v>408414</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -6167,10 +6173,10 @@
         <v>320</v>
       </c>
       <c r="I22" s="7">
-        <v>212574</v>
+        <v>192294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>238</v>
@@ -6182,10 +6188,10 @@
         <v>320</v>
       </c>
       <c r="N22" s="7">
-        <v>212574</v>
+        <v>192294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>238</v>
@@ -6216,31 +6222,31 @@
         <v>1228</v>
       </c>
       <c r="I23" s="7">
-        <v>756250</v>
+        <v>773205</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" s="7">
         <v>1228</v>
       </c>
       <c r="N23" s="7">
-        <v>756250</v>
+        <v>773205</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,31 +6271,31 @@
         <v>930</v>
       </c>
       <c r="I24" s="7">
-        <v>631651</v>
+        <v>577953</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M24" s="7">
         <v>930</v>
       </c>
       <c r="N24" s="7">
-        <v>631651</v>
+        <v>577953</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,31 +6320,31 @@
         <v>631</v>
       </c>
       <c r="I25" s="7">
-        <v>439924</v>
+        <v>398370</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>631</v>
       </c>
       <c r="N25" s="7">
-        <v>439924</v>
+        <v>398370</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,31 +6369,31 @@
         <v>389</v>
       </c>
       <c r="I26" s="7">
-        <v>283468</v>
+        <v>264354</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>389</v>
       </c>
       <c r="N26" s="7">
-        <v>283468</v>
+        <v>264354</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,7 +6418,7 @@
         <v>3498</v>
       </c>
       <c r="I27" s="7">
-        <v>2323866</v>
+        <v>2206176</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>31</v>
@@ -6427,7 +6433,7 @@
         <v>3498</v>
       </c>
       <c r="N27" s="7">
-        <v>2323866</v>
+        <v>2206176</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
